--- a/posesiones/1468219.xlsx
+++ b/posesiones/1468219.xlsx
@@ -1850,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>19</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14">
         <v>7</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <v>10</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18">
         <v>8</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R22">
         <v>20</v>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2882,7 +2882,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R24">
         <v>9</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2985,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R26">
         <v>12</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -3085,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R28">
         <v>22</v>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3188,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R30">
         <v>16</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3288,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3338,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R33">
         <v>22</v>
@@ -3391,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3441,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R35">
         <v>7</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3541,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>25</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3641,7 +3641,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R39">
         <v>11</v>
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3744,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R41">
         <v>14</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3844,7 +3844,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R43">
         <v>14</v>
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3944,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R45">
         <v>17</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4047,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R47">
         <v>7</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>10</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R54">
         <v>22</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4538,7 +4538,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R57">
         <v>20</v>
@@ -4591,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R58">
         <v>20</v>
@@ -4644,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R59">
         <v>15</v>
@@ -4694,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4744,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61">
         <v>15</v>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R63">
         <v>7</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4994,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R66">
         <v>17</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5097,7 +5097,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R68">
         <v>10</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5200,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R70">
         <v>15</v>
@@ -5253,7 +5253,7 @@
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R71">
         <v>14</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5400,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R74">
         <v>21</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:18">
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5594,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R80">
         <v>32</v>
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R81">
         <v>19</v>
@@ -5797,7 +5797,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5844,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6035,7 +6035,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R87">
         <v>12</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6138,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R89">
         <v>6</v>
@@ -6191,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R91">
         <v>13</v>
@@ -6294,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R92">
         <v>26</v>
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6397,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R94">
         <v>10</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6497,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6732,7 +6732,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6782,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R102">
         <v>18</v>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6882,7 +6882,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6979,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R106">
         <v>19</v>
@@ -7032,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7082,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R108">
         <v>16</v>
@@ -7135,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7185,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R110">
         <v>2</v>
@@ -7229,10 +7229,10 @@
         <v>1</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7367,10 +7367,10 @@
         <v>1</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7420,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R115">
         <v>11</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7523,7 +7523,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R117">
         <v>11</v>
@@ -7576,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R118">
         <v>24</v>
@@ -7629,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R119">
         <v>20</v>
@@ -7679,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7729,7 +7729,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R121">
         <v>27</v>
@@ -7779,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7829,7 +7829,7 @@
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R123">
         <v>15</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7932,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R125">
         <v>10</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8035,7 +8035,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R127">
         <v>16</v>
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8414,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8464,7 +8464,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R136">
         <v>33</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8655,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8705,7 +8705,7 @@
         <v>1</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R141">
         <v>23</v>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8805,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R143">
         <v>5</v>
@@ -8855,7 +8855,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8902,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9043,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R149">
         <v>18</v>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9331,7 +9331,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9378,7 +9378,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9425,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9475,7 +9475,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R157">
         <v>15</v>
@@ -9528,7 +9528,7 @@
         <v>1</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R158">
         <v>20</v>
@@ -9578,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9722,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9819,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R164">
         <v>19</v>
@@ -9869,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9919,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R166">
         <v>15</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10022,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R168">
         <v>8</v>
@@ -10072,7 +10072,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10116,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10210,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10260,7 +10260,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R173">
         <v>21</v>
@@ -10313,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10407,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10454,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10645,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R181">
         <v>21</v>
@@ -10695,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10745,7 +10745,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10795,7 +10795,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R184">
         <v>15</v>
@@ -10848,7 +10848,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R185">
         <v>20</v>
@@ -10901,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10948,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11042,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11230,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="Q193">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:18">
@@ -11277,7 +11277,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Q195">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:18">
@@ -11374,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="Q196">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R196">
         <v>14</v>
@@ -11427,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R197">
         <v>20</v>
@@ -11480,7 +11480,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11530,7 +11530,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R199">
         <v>16</v>
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11633,7 +11633,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R201">
         <v>7</v>
@@ -11686,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11783,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11833,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="Q205">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R205">
         <v>19</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11980,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12030,7 +12030,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R209">
         <v>23</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12177,7 +12177,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12224,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12318,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12462,7 +12462,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R218">
         <v>12</v>
@@ -12515,7 +12515,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12565,7 +12565,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R220">
         <v>21</v>
@@ -12615,7 +12615,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12668,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R222">
         <v>12</v>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12765,7 +12765,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12812,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12862,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="Q226">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R226">
         <v>21</v>
@@ -12915,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="Q227">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R227">
         <v>17</v>
@@ -12965,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13015,7 +13015,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R229">
         <v>19</v>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13156,7 +13156,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13203,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13253,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R234">
         <v>3</v>
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13353,7 +13353,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R236">
         <v>21</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="Q238">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R238">
         <v>6</v>
@@ -13497,10 +13497,10 @@
         <v>1</v>
       </c>
       <c r="P239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q239">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13594,7 +13594,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13641,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13688,7 +13688,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13729,10 +13729,10 @@
         <v>1</v>
       </c>
       <c r="P244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q244">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13782,7 +13782,7 @@
         <v>1</v>
       </c>
       <c r="Q245">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="R245">
         <v>16</v>
@@ -13835,7 +13835,7 @@
         <v>1</v>
       </c>
       <c r="Q246">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R246">
         <v>17</v>
@@ -13885,7 +13885,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13935,7 +13935,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R248">
         <v>20</v>
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14079,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14126,7 +14126,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14173,7 +14173,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14223,7 +14223,7 @@
         <v>1</v>
       </c>
       <c r="Q254">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R254">
         <v>39</v>
@@ -14273,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14323,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14373,7 +14373,7 @@
         <v>1</v>
       </c>
       <c r="Q257">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R257">
         <v>19</v>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14517,7 +14517,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14564,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14611,7 +14611,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14658,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14705,7 +14705,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14755,7 +14755,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R265">
         <v>0</v>
@@ -14805,7 +14805,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14855,7 +14855,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14902,7 +14902,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14952,7 +14952,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15002,7 +15002,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R270">
         <v>21</v>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15102,7 +15102,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R272">
         <v>0</v>
@@ -15155,7 +15155,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15205,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R274">
         <v>0</v>
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15305,7 +15305,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R276">
         <v>13</v>
@@ -15358,7 +15358,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R277">
         <v>11</v>
@@ -15408,7 +15408,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15458,7 +15458,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R279">
         <v>21</v>
@@ -15508,7 +15508,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15558,7 +15558,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R281">
         <v>17</v>
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R282">
         <v>15</v>
@@ -15664,7 +15664,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15714,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R284">
         <v>12</v>
@@ -15764,7 +15764,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15814,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15908,7 +15908,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15955,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
       <c r="Q290">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="291" spans="1:18">
@@ -16052,7 +16052,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R291">
         <v>44</v>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16155,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R293">
         <v>8</v>
@@ -16208,7 +16208,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16258,7 +16258,7 @@
         <v>1</v>
       </c>
       <c r="Q295">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R295">
         <v>17</v>
@@ -16311,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16361,7 +16361,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R297">
         <v>6</v>
@@ -16411,7 +16411,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16461,7 +16461,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R299">
         <v>21</v>
@@ -16514,7 +16514,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16561,7 +16561,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16611,7 +16611,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16661,7 +16661,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R303">
         <v>19</v>
@@ -16708,7 +16708,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16802,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16852,7 +16852,7 @@
         <v>0</v>
       </c>
       <c r="Q307">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="308" spans="1:18">
@@ -16902,7 +16902,7 @@
         <v>1</v>
       </c>
       <c r="Q308">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R308">
         <v>30</v>
@@ -16955,7 +16955,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R309">
         <v>19</v>
@@ -17005,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17055,7 +17055,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R311">
         <v>13</v>
@@ -17105,7 +17105,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17152,7 +17152,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17202,7 +17202,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R314">
         <v>0</v>
@@ -17255,7 +17255,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17305,7 +17305,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R316">
         <v>11</v>
@@ -17358,7 +17358,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R317">
         <v>10</v>
@@ -17408,7 +17408,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17458,7 +17458,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R319">
         <v>19</v>
@@ -17511,7 +17511,7 @@
         <v>1</v>
       </c>
       <c r="Q320">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R320">
         <v>12</v>
@@ -17561,7 +17561,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17611,7 +17611,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R322">
         <v>20</v>
@@ -17661,7 +17661,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17711,7 +17711,7 @@
         <v>1</v>
       </c>
       <c r="Q324">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R324">
         <v>16</v>
@@ -17764,7 +17764,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R325">
         <v>11</v>
@@ -17814,7 +17814,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17864,7 +17864,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R327">
         <v>4</v>
@@ -17914,7 +17914,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17961,7 +17961,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -18008,7 +18008,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18055,7 +18055,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18102,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18149,7 +18149,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18196,7 +18196,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18243,7 +18243,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18384,7 +18384,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18431,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18481,7 +18481,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R340">
         <v>20</v>
@@ -18534,7 +18534,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R341">
         <v>13</v>
@@ -18587,7 +18587,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18637,7 +18637,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R343">
         <v>23</v>
@@ -18690,7 +18690,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18737,7 +18737,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18831,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18925,7 +18925,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18975,7 +18975,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R350">
         <v>5</v>
@@ -19028,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R351">
         <v>21</v>
@@ -19081,7 +19081,7 @@
         <v>1</v>
       </c>
       <c r="Q352">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R352">
         <v>15</v>
@@ -19134,7 +19134,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19184,7 +19184,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R354">
         <v>1</v>
@@ -19228,10 +19228,10 @@
         <v>1</v>
       </c>
       <c r="P355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q355">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19272,10 +19272,10 @@
         <v>1</v>
       </c>
       <c r="P356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q356">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19375,7 +19375,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R358">
         <v>9</v>
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19475,7 +19475,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R360">
         <v>13</v>
@@ -19528,7 +19528,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19575,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19622,7 +19622,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19716,7 +19716,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19766,7 +19766,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R366">
         <v>8</v>
@@ -19819,7 +19819,7 @@
         <v>1</v>
       </c>
       <c r="Q367">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R367">
         <v>14</v>
@@ -19869,7 +19869,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19919,7 +19919,7 @@
         <v>1</v>
       </c>
       <c r="Q369">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R369">
         <v>26</v>
@@ -19969,7 +19969,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -20016,7 +20016,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20063,7 +20063,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20110,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20160,7 +20160,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R374">
         <v>34</v>
@@ -20213,7 +20213,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R375">
         <v>13</v>
@@ -20266,7 +20266,7 @@
         <v>1</v>
       </c>
       <c r="Q376">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R376">
         <v>6</v>
@@ -20316,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20366,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R378">
         <v>14</v>
@@ -20416,7 +20416,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20463,7 +20463,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20510,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20557,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20604,7 +20604,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20651,7 +20651,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20701,7 +20701,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R385">
         <v>0</v>
@@ -20754,7 +20754,7 @@
         <v>1</v>
       </c>
       <c r="Q386">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R386">
         <v>15</v>
@@ -20807,7 +20807,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R387">
         <v>17</v>
@@ -20857,7 +20857,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20904,7 +20904,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20954,7 +20954,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R390">
         <v>16</v>
@@ -21007,7 +21007,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21054,7 +21054,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21104,7 +21104,7 @@
         <v>1</v>
       </c>
       <c r="Q393">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R393">
         <v>1</v>
@@ -21157,7 +21157,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R394">
         <v>11</v>
@@ -21204,7 +21204,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21251,7 +21251,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21298,7 +21298,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21345,7 +21345,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21392,7 +21392,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21442,7 +21442,7 @@
         <v>1</v>
       </c>
       <c r="Q400">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R400">
         <v>22</v>
@@ -21495,7 +21495,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R401">
         <v>12</v>
@@ -21548,7 +21548,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R402">
         <v>11</v>
@@ -21601,7 +21601,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21651,7 +21651,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R404">
         <v>16</v>
@@ -21701,7 +21701,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21745,7 +21745,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21792,7 +21792,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21839,7 +21839,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21889,7 +21889,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R409">
         <v>15</v>
@@ -21942,7 +21942,7 @@
         <v>1</v>
       </c>
       <c r="Q410">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R410">
         <v>18</v>
@@ -21995,7 +21995,7 @@
         <v>1</v>
       </c>
       <c r="Q411">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R411">
         <v>16</v>
@@ -22045,7 +22045,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22095,7 +22095,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22142,7 +22142,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22189,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22286,7 +22286,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R417">
         <v>24</v>
@@ -22339,7 +22339,7 @@
         <v>1</v>
       </c>
       <c r="Q418">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R418">
         <v>11</v>
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22442,7 +22442,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R420">
         <v>21</v>
@@ -22492,7 +22492,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22542,7 +22542,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22592,7 +22592,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R423">
         <v>6</v>
@@ -22645,7 +22645,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22695,7 +22695,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R425">
         <v>7</v>
@@ -22745,7 +22745,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22839,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22889,7 +22889,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R429">
         <v>0</v>
@@ -22942,7 +22942,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R430">
         <v>11</v>
@@ -22992,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23042,7 +23042,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R432">
         <v>14</v>
@@ -23092,7 +23092,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23139,7 +23139,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23189,7 +23189,7 @@
         <v>1</v>
       </c>
       <c r="Q435">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R435">
         <v>0</v>
@@ -23242,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23292,7 +23292,7 @@
         <v>1</v>
       </c>
       <c r="Q437">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R437">
         <v>19</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23392,7 +23392,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23442,7 +23442,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R440">
         <v>35</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23545,7 +23545,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R442">
         <v>1</v>
@@ -23595,7 +23595,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23689,7 +23689,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23736,7 +23736,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23833,7 +23833,7 @@
         <v>1</v>
       </c>
       <c r="Q448">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R448">
         <v>2</v>
@@ -23883,7 +23883,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23930,7 +23930,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R452">
         <v>16</v>
@@ -24077,7 +24077,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R453">
         <v>4</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24227,7 +24227,7 @@
         <v>1</v>
       </c>
       <c r="Q456">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R456">
         <v>23</v>
@@ -24277,7 +24277,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24324,7 +24324,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24371,7 +24371,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="Q460">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="461" spans="1:18">
@@ -24465,7 +24465,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24512,7 +24512,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24562,7 +24562,7 @@
         <v>1</v>
       </c>
       <c r="Q463">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R463">
         <v>10</v>
@@ -24615,7 +24615,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R464">
         <v>15</v>
@@ -24665,7 +24665,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24712,7 +24712,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24759,7 +24759,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24950,7 +24950,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R471">
         <v>0</v>
@@ -25003,7 +25003,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25053,7 +25053,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R473">
         <v>12</v>
@@ -25106,7 +25106,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25156,7 +25156,7 @@
         <v>1</v>
       </c>
       <c r="Q475">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R475">
         <v>9</v>
@@ -25209,7 +25209,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25256,7 +25256,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25303,7 +25303,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25403,7 +25403,7 @@
         <v>1</v>
       </c>
       <c r="Q480">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R480">
         <v>13</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25500,7 +25500,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25547,7 +25547,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25641,7 +25641,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25785,7 +25785,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R488">
         <v>24</v>
@@ -25838,7 +25838,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R489">
         <v>12</v>
@@ -25894,7 +25894,7 @@
         <v>1</v>
       </c>
       <c r="Q490">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R490">
         <v>0</v>
@@ -25938,10 +25938,10 @@
         <v>1</v>
       </c>
       <c r="P491" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q491">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -25982,7 +25982,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
